--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_13.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183963</v>
+        <v>5475808.405183962</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,76 +893,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="I5" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1190,7 +1190,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1269,7 +1269,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,25 +1412,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>84.41978777916125</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1607,73 +1607,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="G14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="16">
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1977,13 +1977,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,73 +2078,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>71.01467844038824</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.6811543337673</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>24.38475892735162</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>28.3199720236453</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2652,7 +2652,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="29">
@@ -2792,73 +2792,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>147.472425438573</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2950,58 +2950,58 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>12.94771755361648</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>126.1431055256349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,11 +3263,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3275,61 +3275,61 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3348,10 +3348,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>89.98138655216529</v>
+        <v>156.4327184930647</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
@@ -3582,19 +3582,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>29.30671046551747</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.98138655216532</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>50.05769526855297</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>73.68487908846053</v>
       </c>
     </row>
     <row r="43">
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,25 +4056,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>5.995138108026839</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>98.79295201517472</v>
       </c>
     </row>
     <row r="46">
@@ -4141,55 +4141,55 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C3" t="n">
         <v>817.1412885554689</v>
@@ -4413,16 +4413,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4607,10 +4607,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,10 +4650,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C9" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D9" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E9" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F9" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,13 +4884,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4917,16 +4917,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X9" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y9" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4981,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>104.5536560184564</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5127,13 +5127,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5388,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,19 +5595,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5625,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>851.8101010141643</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>949.2277066886491</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>775.8103621393179</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>573.6237674980839</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>573.6237674980839</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>573.6237674980839</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>573.6237674980839</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>365.7722672925511</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5944,7 +5944,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X23" t="n">
-        <v>231.8830517671884</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.4405950311615</v>
+        <v>352.8382100532927</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>352.8382100532927</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>203.9038003920414</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>44.66634538658593</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6102,16 +6102,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y24" t="n">
-        <v>816.6559320512295</v>
+        <v>521.0535470733607</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="C27" t="n">
-        <v>756.2968567456824</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,10 +6309,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6400,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6500,13 +6500,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>343.4227147053767</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C30" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,7 +6552,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>815.0951096130877</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>815.0951096130877</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>586.8714913494769</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>586.8714913494769</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>343.4227147053767</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>343.4227147053767</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>343.4227147053767</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>384.2867411876791</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C33" t="n">
-        <v>384.2867411876791</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="D33" t="n">
-        <v>384.2867411876791</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="E33" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>237.752183214564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6792,37 +6792,37 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>384.2867411876791</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>384.2867411876791</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y33" t="n">
-        <v>384.2867411876791</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="34">
@@ -6895,10 +6895,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.6244618379714</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C36" t="n">
-        <v>110.1714325568443</v>
+        <v>326.2283997341556</v>
       </c>
       <c r="D36" t="n">
-        <v>110.1714325568443</v>
+        <v>177.2939900729043</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7050,16 +7050,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>492.3847606029253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X36" t="n">
-        <v>492.3847606029253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y36" t="n">
-        <v>284.6244618379714</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>354.6558939327403</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>354.6558939327403</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>354.6558939327403</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>195.4184389272848</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>48.88388095416977</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7263,7 +7263,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>873.1668660640046</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>873.1668660640046</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>873.1668660640046</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>644.9432478003937</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>644.9432478003937</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W39" t="n">
-        <v>401.4944711562937</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X39" t="n">
-        <v>401.4944711562937</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
         <v>262.7299197543128</v>
@@ -7436,25 +7436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7494,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>472.7618635207803</v>
       </c>
     </row>
     <row r="43">
@@ -7594,13 +7594,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>552.3930418464681</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="C45" t="n">
-        <v>377.9400125653411</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D45" t="n">
-        <v>229.0056029040899</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E45" t="n">
-        <v>229.0056029040899</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F45" t="n">
-        <v>229.0056029040899</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G45" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7728,22 +7728,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>447.4001736958165</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,7 +8073,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8775,16 +8775,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>303.312501347746</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,7 +9021,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,13 +9252,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,13 +9492,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9957,13 +9957,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10200,10 +10200,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10440,13 +10440,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10674,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10911,10 +10911,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,7 +22565,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,19 +22589,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22799,13 +22799,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,19 +22914,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22963,7 +22963,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23078,7 +23078,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>227.3726215175137</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23112,13 +23112,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23157,7 +23157,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>151.8593460673979</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,25 +23300,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>264.8211809382518</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23495,19 +23495,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>354.4504772539638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23537,10 +23537,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,19 +23628,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="16">
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23823,13 +23823,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23865,13 +23865,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>128.8756670037568</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23911,10 +23911,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,13 +24026,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24060,7 +24060,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>85.47667981887584</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,10 +24206,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,10 +24224,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,10 +24254,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>108.137662477717</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,7 +24285,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,7 +24294,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>120.6844534660323</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24342,16 +24342,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>59.75548455249168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24388,7 +24388,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>175.4015535970057</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24497,13 +24497,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24525,10 +24525,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>129.3251084317556</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24585,7 +24585,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24622,10 +24622,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,10 +24640,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24680,28 +24680,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,10 +24759,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>24.21074566526482</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>144.6973629017845</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>11.20041163757577</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,16 +25053,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>248.0803368506399</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25236,10 +25236,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>67.66369390323565</v>
+        <v>1.212361962336274</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25290,16 +25290,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25330,10 +25330,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25436,16 +25436,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>158.3909858982911</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
@@ -25470,19 +25470,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>108.0368066976932</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.17644760047781</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25530,7 +25530,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>351.4177255634863</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
@@ -25676,7 +25676,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,10 +25716,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>121.6254758352848</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,16 +25764,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>131.9978166888438</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>192.3884445891958</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>322.4562579625502</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,25 +25944,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>131.3483790551838</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>106.8897437621296</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142976</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="C2" t="n">
         <v>108004.437145366</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>108004.4371453661</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
@@ -26326,22 +26326,22 @@
         <v>108004.4371453661</v>
       </c>
       <c r="G2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="H2" t="n">
         <v>108004.4371453661</v>
-      </c>
-      <c r="H2" t="n">
-        <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
@@ -26350,7 +26350,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26448,7 +26448,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="N4" t="n">
         <v>179.5324977039669</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764734</v>
+        <v>-21225.79564764732</v>
       </c>
       <c r="C6" t="n">
+        <v>59543.63588390041</v>
+      </c>
+      <c r="D6" t="n">
         <v>59543.63588390042</v>
-      </c>
-      <c r="D6" t="n">
-        <v>59543.6358839004</v>
       </c>
       <c r="E6" t="n">
         <v>93171.2358839004</v>
       </c>
       <c r="F6" t="n">
-        <v>93171.23588390044</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="G6" t="n">
+        <v>93171.23588390037</v>
+      </c>
+      <c r="H6" t="n">
         <v>93171.23588390042</v>
-      </c>
-      <c r="H6" t="n">
-        <v>93171.2358839004</v>
       </c>
       <c r="I6" t="n">
         <v>93171.23588390039</v>
       </c>
       <c r="J6" t="n">
-        <v>30111.29328479419</v>
+        <v>30111.29328479418</v>
       </c>
       <c r="K6" t="n">
-        <v>93171.23588390037</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="L6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="M6" t="n">
+        <v>93171.2358839004</v>
+      </c>
+      <c r="N6" t="n">
         <v>93171.23588390039</v>
       </c>
-      <c r="N6" t="n">
-        <v>93171.23588390037</v>
-      </c>
       <c r="O6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="P6" t="n">
-        <v>93171.23588390037</v>
+        <v>93171.23588390036</v>
       </c>
     </row>
   </sheetData>
@@ -34781,10 +34781,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,7 +34793,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35185,7 +35185,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35495,16 +35495,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N12" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O12" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>161.1784674257276</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,7 +35741,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,13 +35972,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,13 +36212,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36920,10 +36920,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>169.9067907798016</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37160,13 +37160,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,13 +37394,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37862,13 +37862,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544966</v>
+        <v>579062.4560687634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183962</v>
+        <v>5475808.405183963</v>
       </c>
     </row>
     <row r="11">
@@ -656,65 +658,65 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>90.36004757168708</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,58 +910,58 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I5" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -975,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>13.16315991169311</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V8" t="n">
-        <v>100.3796369526212</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>63.69433682570984</v>
       </c>
       <c r="I9" t="n">
-        <v>3.833957768458675</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1263,19 +1265,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,64 +1381,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>15.42067328920995</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,17 +1609,17 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1804,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1935,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,13 +1979,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>123.6003327477366</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2023,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2087,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
@@ -2169,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>89.75619044871839</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2214,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
@@ -2336,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>24.38475892735162</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>144.1493081031291</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2500,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>28.3199720236453</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -2652,10 +2654,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>40.66707830858141</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2925,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>58.77347250022251</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>12.94771755361648</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,22 +3161,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,20 +3268,20 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.4327184930647</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,73 +3505,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>29.30671046551747</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>84.05721994201966</v>
       </c>
     </row>
     <row r="40">
@@ -3740,73 +3742,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>121.9333552767668</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>73.68487908846053</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,19 +4067,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.79295201517472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>962.2293816994886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>962.2293816994886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>962.2293816994886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>962.2293816994886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>962.2293816994886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4547,22 +4549,22 @@
         <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4601,10 +4603,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
         <v>720.6083788665362</v>
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4653,10 +4655,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>55.04605772994853</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.90796037760316</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="C9" t="n">
-        <v>23.90796037760316</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="D9" t="n">
-        <v>23.90796037760316</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="E9" t="n">
-        <v>23.90796037760316</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="F9" t="n">
-        <v>23.90796037760316</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="G9" t="n">
-        <v>23.90796037760316</v>
+        <v>174.6726188712054</v>
       </c>
       <c r="H9" t="n">
-        <v>23.90796037760316</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4890,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>23.90796037760316</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.90796037760316</v>
+        <v>481.618781308658</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5078,13 +5080,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5121,13 +5123,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>847.3111883976533</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="13">
@@ -5215,10 +5217,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5309,19 +5311,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X14" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5452,13 +5454,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,7 +5603,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5625,19 +5627,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>362.4348659156472</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>362.4348659156472</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="X20" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.6980943980675</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.6980943980675</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5837,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5862,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="22">
@@ -5947,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>352.8382100532927</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>352.8382100532927</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>203.9038003920414</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>44.66634538658593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W24" t="n">
-        <v>728.9050472788936</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X24" t="n">
-        <v>521.0535470733607</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.0535470733607</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
         <v>19.28114311021272</v>
@@ -6172,25 +6174,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6262,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>447.2758270930352</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C27" t="n">
-        <v>447.2758270930352</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D27" t="n">
-        <v>447.2758270930352</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="E27" t="n">
-        <v>418.6697947459187</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="F27" t="n">
-        <v>272.1352367728036</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>173.7281355799884</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>60.35899998756769</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6345,10 +6347,10 @@
         <v>862.8876260635219</v>
       </c>
       <c r="X27" t="n">
-        <v>655.0361258579891</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y27" t="n">
-        <v>447.2758270930352</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="28">
@@ -6421,10 +6423,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
         <v>31.35113235729608</v>
@@ -6488,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.84447166430675</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>904.6900115710175</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>904.6900115710175</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>661.2412349269175</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>661.2412349269175</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.84447166430675</v>
+        <v>453.4809361619635</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.8126749707503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>32.35964568962331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>32.35964568962331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>582.7883107557723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C35" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C36" t="n">
-        <v>326.2283997341556</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>177.2939900729043</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7026,13 +7028,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W36" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X36" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y36" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7193,13 +7195,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
         <v>749.627473042513</v>
@@ -7208,16 +7210,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>354.6558939327403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>354.6558939327403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>354.6558939327403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>195.4184389272848</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>48.88388095416977</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7260,10 +7262,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7284,19 +7286,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4161926976942</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X39" t="n">
-        <v>562.4161926976942</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y39" t="n">
-        <v>354.6558939327403</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>304.5465265007123</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="C42" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7491,13 +7493,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y42" t="n">
-        <v>472.7618635207803</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="43">
@@ -7597,10 +7599,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>104.5536560184564</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>279.1848366757484</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C45" t="n">
-        <v>279.1848366757484</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D45" t="n">
-        <v>279.1848366757484</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E45" t="n">
-        <v>279.1848366757484</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F45" t="n">
-        <v>132.6502787026334</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>790.6398109613051</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W45" t="n">
-        <v>547.1910343172051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X45" t="n">
-        <v>547.1910343172051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y45" t="n">
-        <v>447.4001736958165</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7837,19 +7839,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8301,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8538,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9249,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9483,10 +9485,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>283.8997115633647</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>135.5813345092877</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22841,13 +22843,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22863,16 +22865,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>159.5453390766226</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22908,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>227.3726215175137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23112,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>48.54110741078662</v>
       </c>
       <c r="I9" t="n">
-        <v>85.5626750829564</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23151,19 +23153,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.8593460673979</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>217.3799138602153</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,7 +23497,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23692,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23823,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>102.3410493332383</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>128.8756670037568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23911,10 +23913,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23975,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,13 +24025,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
@@ -24057,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>22.47925378777808</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24102,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
@@ -24224,10 +24226,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>120.6844534660323</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>56.0154205916925</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24388,7 +24390,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24458,7 +24460,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24500,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>129.3251084317556</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24540,10 +24542,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>48.72955454283367</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,19 +24761,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24813,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>167.1679095807523</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>144.6973629017845</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25047,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25202,13 +25204,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0803368506399</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25233,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>67.9701157409561</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>1.212361962336274</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,10 +25283,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,7 +25393,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25476,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>108.0368066976932</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>121.6254758352847</v>
       </c>
     </row>
     <row r="40">
@@ -25628,7 +25630,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>50.77514371154891</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,10 +25718,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>131.9978166888438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25837,13 +25839,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25865,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>322.4562579625502</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25953,19 +25955,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>66.96450839845255</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>106.8897437621296</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142976</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142978</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="C2" t="n">
         <v>108004.4371453661</v>
-      </c>
-      <c r="C2" t="n">
-        <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
         <v>108004.4371453661</v>
@@ -26323,13 +26325,13 @@
         <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
@@ -26338,7 +26340,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="L2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26448,7 +26450,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
         <v>179.5324977039669</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764732</v>
+        <v>-21225.79564764735</v>
       </c>
       <c r="C6" t="n">
-        <v>59543.63588390041</v>
+        <v>59543.63588390043</v>
       </c>
       <c r="D6" t="n">
         <v>59543.63588390042</v>
@@ -26531,37 +26533,37 @@
         <v>93171.2358839004</v>
       </c>
       <c r="F6" t="n">
+        <v>93171.2358839004</v>
+      </c>
+      <c r="G6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="H6" t="n">
+        <v>93171.2358839004</v>
+      </c>
+      <c r="I6" t="n">
+        <v>93171.2358839004</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30111.29328479416</v>
+      </c>
+      <c r="K6" t="n">
         <v>93171.23588390042</v>
       </c>
-      <c r="G6" t="n">
-        <v>93171.23588390037</v>
-      </c>
-      <c r="H6" t="n">
-        <v>93171.23588390042</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>93171.23588390039</v>
       </c>
-      <c r="J6" t="n">
-        <v>30111.29328479418</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="N6" t="n">
         <v>93171.2358839004</v>
-      </c>
-      <c r="L6" t="n">
-        <v>93171.2358839004</v>
-      </c>
-      <c r="M6" t="n">
-        <v>93171.2358839004</v>
-      </c>
-      <c r="N6" t="n">
-        <v>93171.23588390039</v>
       </c>
       <c r="O6" t="n">
         <v>93171.23588390039</v>
       </c>
       <c r="P6" t="n">
-        <v>93171.23588390036</v>
+        <v>93171.23588390039</v>
       </c>
     </row>
   </sheetData>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35258,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36127,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
